--- a/MAPPA.xlsx
+++ b/MAPPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessio.palma/W1/FOGLI_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41458DD5-27F0-6C43-A179-0DAFF0C25A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD07B14-9261-9147-BEBB-37F7D5F56D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1820" windowWidth="25300" windowHeight="14020" activeTab="1" xr2:uid="{1FB24E2F-E8D0-9345-B5C9-ED12D0CD78F7}"/>
+    <workbookView xWindow="8280" yWindow="1300" windowWidth="23740" windowHeight="13200" xr2:uid="{1FB24E2F-E8D0-9345-B5C9-ED12D0CD78F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Mappa-template-referto" sheetId="1" r:id="rId1"/>
@@ -455,9 +455,6 @@
     <t>Etilbenzene (µg/l)</t>
   </si>
   <si>
-    <t>mg/L</t>
-  </si>
-  <si>
     <t>Toluene (µg/l)</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>DataPrelievo</t>
+  </si>
+  <si>
+    <t>Kg/L</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B21C5-21BF-2B40-BEAD-209D97D66639}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,19 +932,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1441,7 +1441,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
         <v>138</v>
@@ -1581,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -2031,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5CAE0-E2C6-3848-B6FD-4DD4B7A6A5DB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,75 +2095,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -2171,26 +2171,26 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
